--- a/data/out/Excel/Mycoplasmataceae.xlsx
+++ b/data/out/Excel/Mycoplasmataceae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Bacteria Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Code\SequenceAnalysis\data\out\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53664814-53CB-4E93-8193-85E964BBF669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3873A-4602-4AEB-8B95-4A86F2269526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19800" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17445" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mycoplasmataceae" sheetId="1" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
